--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E8616-A0CD-4082-9C3B-6EEF45188E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428C7FD9-B5CC-465F-B385-9E287F05DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11790" yWindow="585" windowWidth="13320" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,10 @@
     <rPh sb="0" eb="3">
       <t>ゲンザイチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>------</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -276,7 +280,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.5a7158ced97f4c76b206a1c0c1011cae">
+    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -286,8 +290,24 @@
         <stp>現在値詳細時刻</stp>
         <tr r="C4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.5a7158ced97f4c76b206a1c0c1011cae">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="C2" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -298,16 +318,25 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="C2" s="1"/>
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.5a7158ced97f4c76b206a1c0c1011cae">
+    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
       <tp>
         <v>1947</v>
         <stp/>
@@ -318,7 +347,16 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.5a7158ced97f4c76b206a1c0c1011cae">
+    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
+      <tp>
+        <v>2830</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="D2" s="1"/>
+      </tp>
       <tp>
         <v>2642.5</v>
         <stp/>
@@ -327,44 +365,6 @@
         <stp>72030.T</stp>
         <stp>現在値</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>2830</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5a7158ced97f4c76b206a1c0c1011cae">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -688,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -769,6 +769,20 @@
         <v>1947</v>
       </c>
     </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428C7FD9-B5CC-465F-B385-9E287F05DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F1C6C9-73E1-46DC-9FB3-A39D9FB44E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11790" yWindow="585" windowWidth="13320" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,10 @@
     <t>------</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>現在日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +176,13 @@
       <color theme="0"/>
       <name val="Noto Sans Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -223,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +270,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,13 +296,42 @@
   <volType type="realTimeData">
     <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
       <tp t="s">
+        <v>2025/05/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/05/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/05/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
+      <tp t="s">
         <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="C4" s="1"/>
+        <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
         <v>三菱重工業</v>
@@ -306,7 +349,7 @@
         <stp>STOCK</stp>
         <stp>70110.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="C2" s="1"/>
+        <tr r="D2" s="1"/>
       </tp>
       <tp t="s">
         <v>15:30:00</v>
@@ -315,7 +358,7 @@
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="C3" s="1"/>
+        <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
         <v>トヨタ自動車</v>
@@ -344,7 +387,7 @@
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値</stp>
-        <tr r="D4" s="1"/>
+        <tr r="E4" s="1"/>
       </tp>
     </main>
     <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
@@ -355,7 +398,7 @@
         <stp>STOCK</stp>
         <stp>70110.T</stp>
         <stp>現在値</stp>
-        <tr r="D2" s="1"/>
+        <tr r="E2" s="1"/>
       </tp>
       <tp>
         <v>2642.5</v>
@@ -364,7 +407,7 @@
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>現在値</stp>
-        <tr r="D3" s="1"/>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -688,37 +731,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="3" max="3" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -728,14 +775,18 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
+        <v>2025/05/16</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>_xll.RssMarket($A2, D$1)</f>
         <v>15:30:00</v>
       </c>
-      <c r="D2" s="9">
-        <f>_xll.RssMarket($A2, D$1)</f>
+      <c r="E2" s="9">
+        <f>_xll.RssMarket($A2, E$1)</f>
         <v>2830</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -745,14 +796,18 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
+        <v>2025/05/16</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>_xll.RssMarket($A3, D$1)</f>
         <v>15:30:00</v>
       </c>
-      <c r="D3" s="9">
-        <f>_xll.RssMarket($A3, D$1)</f>
+      <c r="E3" s="9">
+        <f>_xll.RssMarket($A3, E$1)</f>
         <v>2642.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -762,14 +817,18 @@
       </c>
       <c r="C4" s="8" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
+        <v>2025/05/16</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>_xll.RssMarket($A4, D$1)</f>
         <v>15:30:00</v>
       </c>
-      <c r="D4" s="9">
-        <f>_xll.RssMarket($A4, D$1)</f>
+      <c r="E4" s="9">
+        <f>_xll.RssMarket($A4, E$1)</f>
         <v>1947</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -780,6 +839,9 @@
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F1C6C9-73E1-46DC-9FB3-A39D9FB44E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AFE5E6-F1A4-4C72-AA1A-F9FBEA2B0515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11790" yWindow="585" windowWidth="13320" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,9 @@
     <t>現在日付</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>前日終値</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +186,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,9 +258,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +281,15 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,7 +311,29 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+      <tp t="s">
+        <v>2025/05/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+      <tp t="s">
+        <v>2025/05/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
       <tp t="s">
         <v>2025/05/16</v>
         <stp/>
@@ -304,26 +343,95 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+      <tp>
+        <v>2657</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1930</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2746</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>1947</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
       <tp t="s">
-        <v>2025/05/16</v>
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/16</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+      <tp>
+        <v>2642.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2830</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
+    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -334,13 +442,13 @@
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
         <v>15:30:00</v>
@@ -350,64 +458,6 @@
         <stp>70110.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
-      <tp>
-        <v>1947</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8fe0bcacac2d4ff4b6729b8f0f1d26da">
-      <tp>
-        <v>2830</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2642.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -731,117 +781,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="6" t="str">
         <f>_xll.RssMarket($A2, B$1)</f>
         <v>三菱重工業</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
         <v>2025/05/16</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
         <v>15:30:00</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
         <v>2830</v>
       </c>
+      <c r="F2" s="8">
+        <f>_xll.RssMarket($A2, F$1)</f>
+        <v>2746</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <f>_xll.RssMarket($A3, B$1)</f>
         <v>トヨタ自動車</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
         <v>2025/05/16</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
         <v>15:30:00</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
         <v>2642.5</v>
       </c>
+      <c r="F3" s="8">
+        <f>_xll.RssMarket($A3, F$1)</f>
+        <v>2657</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="6" t="str">
         <f>_xll.RssMarket($A4, B$1)</f>
         <v>三菱ＵＦＪフィナンシャルＧ</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
         <v>2025/05/16</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
         <v>15:30:00</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
         <v>1947</v>
       </c>
+      <c r="F4" s="8">
+        <f>_xll.RssMarket($A4, F$1)</f>
+        <v>1930</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AFE5E6-F1A4-4C72-AA1A-F9FBEA2B0515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7246DED-0024-47B6-AEE3-2B388DB148FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="585" windowWidth="13320" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15240" yWindow="345" windowWidth="13320" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,16 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+      <tp t="s">
+        <v>2025/05/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
       <tp t="s">
         <v>2025/05/16</v>
         <stp/>
@@ -321,8 +330,6 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
       <tp t="s">
         <v>2025/05/16</v>
         <stp/>
@@ -333,15 +340,84 @@
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
       <tp t="s">
-        <v>2025/05/16</v>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>1947</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+      <tp>
+        <v>2746</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
       </tp>
       <tp>
         <v>2657</v>
@@ -352,6 +428,8 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
       <tp>
         <v>1930</v>
         <stp/>
@@ -362,56 +440,14 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2746</v>
+        <v>2830</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>1947</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
         <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
+        <tr r="E2" s="1"/>
+      </tp>
       <tp>
         <v>2642.5</v>
         <stp/>
@@ -420,44 +456,6 @@
         <stp>72030.T</stp>
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2830</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1839d5b84a0c46b890c00c798fc2014c">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -785,7 +783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7246DED-0024-47B6-AEE3-2B388DB148FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C278E-78D3-48F9-89BB-7478A49363E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="345" windowWidth="13320" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
       <tp t="s">
-        <v>2025/05/16</v>
+        <v>2025/05/19</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -322,7 +322,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/16</v>
+        <v>2025/05/19</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,7 +331,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/16</v>
+        <v>2025/05/19</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -391,7 +391,7 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp>
-        <v>1947</v>
+        <v>1969.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -411,7 +411,7 @@
     </main>
     <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
       <tp>
-        <v>2746</v>
+        <v>2830</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -420,7 +420,7 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>2657</v>
+        <v>2642.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -431,7 +431,7 @@
     </main>
     <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
       <tp>
-        <v>1930</v>
+        <v>1947</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -440,7 +440,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2830</v>
+        <v>2916</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -449,7 +449,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2642.5</v>
+        <v>2665</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -783,7 +783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -826,7 +826,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/16</v>
+        <v>2025/05/19</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -834,11 +834,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2830</v>
+        <v>2916</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2746</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -851,7 +851,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/16</v>
+        <v>2025/05/19</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -859,11 +859,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2642.5</v>
+        <v>2665</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2657</v>
+        <v>2642.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -876,7 +876,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/16</v>
+        <v>2025/05/19</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -884,11 +884,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1947</v>
+        <v>1969.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1930</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C278E-78D3-48F9-89BB-7478A49363E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72561C79-1DDD-4A62-8918-B15D2A0989AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
       <tp t="s">
         <v>2025/05/19</v>
         <stp/>
@@ -340,7 +340,7 @@
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -351,7 +351,7 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -371,7 +371,7 @@
         <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -409,7 +409,27 @@
         <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
+      <tp>
+        <v>2916</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2665</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
       <tp>
         <v>2830</v>
         <stp/>
@@ -428,8 +448,6 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7307758ec0de4f16ac0c675490577233">
       <tp>
         <v>1947</v>
         <stp/>
@@ -438,24 +456,6 @@
         <stp>83060.T</stp>
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2916</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2665</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -783,7 +783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72561C79-1DDD-4A62-8918-B15D2A0989AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2825E3-42B9-44F7-A8EC-7F9B31B99F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans HK"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -245,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +296,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -313,7 +323,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
       <tp t="s">
-        <v>2025/05/19</v>
+        <v>2025/05/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -322,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/19</v>
+        <v>2025/05/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/19</v>
+        <v>2025/05/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -391,7 +401,7 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp>
-        <v>1969.5</v>
+        <v>1974.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -407,6 +417,26 @@
         <stp>83060.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
+      <tp>
+        <v>2920</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2672.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
     <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
@@ -416,31 +446,11 @@
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
       </tp>
       <tp>
         <v>2665</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
-      <tp>
-        <v>2830</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2642.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -449,7 +459,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>1947</v>
+        <v>1969.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -779,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -826,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/19</v>
+        <v>2025/05/20</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -834,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2830</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -851,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/19</v>
+        <v>2025/05/20</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -859,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2665</v>
+        <v>2672.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2642.5</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -876,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/19</v>
+        <v>2025/05/20</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -884,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1969.5</v>
+        <v>1974.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1947</v>
+        <v>1969.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -910,6 +920,9 @@
       <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2825E3-42B9-44F7-A8EC-7F9B31B99F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A241DE-88DA-426D-B7D8-ACE9C3140005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,7 +321,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
       <tp t="s">
         <v>2025/05/20</v>
         <stp/>
@@ -336,21 +336,52 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/05/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/05/20</v>
+    </main>
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+      <tp>
+        <v>2916</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+      <tp>
+        <v>1969.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2665</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -361,7 +392,25 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -381,16 +430,7 @@
         <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -400,6 +440,8 @@
         <stp>銘柄名称</stp>
         <tr r="B3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
       <tp>
         <v>1974.5</v>
         <stp/>
@@ -409,17 +451,8 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
+    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
       <tp>
         <v>2920</v>
         <stp/>
@@ -437,35 +470,6 @@
         <stp>72030.T</stp>
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f5f7b668c79545fe9d915364d6451639">
-      <tp>
-        <v>2916</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2665</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1969.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
       </tp>
     </main>
   </volType>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A241DE-88DA-426D-B7D8-ACE9C3140005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49272BE4-D96E-40E5-8EAE-E54FF8F0CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,7 +321,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
       <tp t="s">
         <v>2025/05/20</v>
         <stp/>
@@ -336,21 +336,21 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/05/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/05/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
       <tp>
         <v>2916</v>
         <stp/>
@@ -361,7 +361,34 @@
         <tr r="F2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
+      <tp>
+        <v>2665</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2920</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2672.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
       <tp>
         <v>1969.5</v>
         <stp/>
@@ -372,16 +399,63 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2665</v>
+        <v>1974.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
+    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -390,86 +464,6 @@
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
-      <tp>
-        <v>1974.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.73ef273c0fe149c49a7ef8e912198b77">
-      <tp>
-        <v>2920</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2672.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -797,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49272BE4-D96E-40E5-8EAE-E54FF8F0CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD43118-AAE8-4565-ABC0-65445B505DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -323,7 +323,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
       <tp t="s">
-        <v>2025/05/20</v>
+        <v>2025/05/21</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/20</v>
+        <v>2025/05/21</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/20</v>
+        <v>2025/05/21</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -352,7 +352,7 @@
     </main>
     <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
       <tp>
-        <v>2916</v>
+        <v>2920</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -363,7 +363,7 @@
     </main>
     <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
       <tp>
-        <v>2665</v>
+        <v>2672.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -372,7 +372,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>2920</v>
+        <v>2999.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -381,7 +381,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2672.5</v>
+        <v>2662.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -390,7 +390,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>1969.5</v>
+        <v>1974.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -399,7 +399,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>1974.5</v>
+        <v>1970</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/20</v>
+        <v>2025/05/21</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2920</v>
+        <v>2999.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2916</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/20</v>
+        <v>2025/05/21</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2672.5</v>
+        <v>2662.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2665</v>
+        <v>2672.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/20</v>
+        <v>2025/05/21</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1974.5</v>
+        <v>1970</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1969.5</v>
+        <v>1974.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD43118-AAE8-4565-ABC0-65445B505DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3ED8F-F621-4095-8240-3E8E1BB6CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
+    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
       <tp t="s">
-        <v>2025/05/21</v>
+        <v>2025/05/23</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/21</v>
+        <v>2025/05/23</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/21</v>
+        <v>2025/05/23</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -350,9 +350,40 @@
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
+    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
       <tp>
-        <v>2920</v>
+        <v>3208</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2623.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
+      <tp>
+        <v>1942.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
+      <tp>
+        <v>3044</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,10 +391,26 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
       <tp>
-        <v>2672.5</v>
+        <v>2620</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -372,25 +419,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>2999.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2662.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>1974.5</v>
+        <v>1945</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -398,17 +427,17 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp>
-        <v>1970</v>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
+    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -435,35 +464,6 @@
         <stp>83060.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.32b285c91237462ca5d06df299fb2246">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -791,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/21</v>
+        <v>2025/05/23</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2999.5</v>
+        <v>3208</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2920</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/21</v>
+        <v>2025/05/23</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2662.5</v>
+        <v>2623.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2672.5</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/21</v>
+        <v>2025/05/23</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1970</v>
+        <v>1942.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1974.5</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3ED8F-F621-4095-8240-3E8E1BB6CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860E98E-FFA3-446F-9F9F-B29E1C12B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
+    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
       <tp t="s">
-        <v>2025/05/23</v>
+        <v>2025/05/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/23</v>
+        <v>2025/05/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/23</v>
+        <v>2025/05/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,10 +349,8 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
       <tp>
-        <v>3208</v>
+        <v>3284</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -361,7 +359,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2623.5</v>
+        <v>2640</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -370,9 +368,9 @@
         <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
+    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
       <tp>
-        <v>1942.5</v>
+        <v>1977</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -380,10 +378,8 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
       <tp>
-        <v>3044</v>
+        <v>3195</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -391,6 +387,26 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
+      <tp>
+        <v>2621.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1955</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -409,23 +425,27 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
       </tp>
-      <tp>
-        <v>2620</v>
+    </main>
+    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1945</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
         <v>15:30:00</v>
@@ -435,26 +455,6 @@
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7cd9580d5ed2456694718522d7f6d07a">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
@@ -791,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/23</v>
+        <v>2025/05/27</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3208</v>
+        <v>3284</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3044</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/23</v>
+        <v>2025/05/27</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2623.5</v>
+        <v>2640</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2620</v>
+        <v>2621.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/23</v>
+        <v>2025/05/27</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1942.5</v>
+        <v>1977</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1945</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860E98E-FFA3-446F-9F9F-B29E1C12B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4C0D9-387B-4235-95EE-211F3D149AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
       <tp t="s">
-        <v>2025/05/27</v>
+        <v>2025/05/28</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/27</v>
+        <v>2025/05/28</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/27</v>
+        <v>2025/05/28</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,8 +349,19 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
       <tp>
-        <v>3284</v>
+        <v>1963</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>3266</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -359,7 +370,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2640</v>
+        <v>2631.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -368,18 +379,51 @@
         <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
       <tp>
-        <v>1977</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>3195</v>
+        <v>3284</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -387,8 +431,10 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
       <tp>
-        <v>2621.5</v>
+        <v>2640</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -396,8 +442,10 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
       <tp>
-        <v>1955</v>
+        <v>1977</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -405,8 +453,6 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -424,46 +470,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c1c36dd0da064819bf8b1751a08516ff">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +840,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/27</v>
+        <v>2025/05/28</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +848,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3284</v>
+        <v>3266</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3195</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -859,7 +865,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/27</v>
+        <v>2025/05/28</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +873,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2640</v>
+        <v>2631.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2621.5</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,7 +890,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/27</v>
+        <v>2025/05/28</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +898,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1977</v>
+        <v>1963</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1955</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/daytrader.xlsx
+++ b/daytrader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\stock-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\stock-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4C0D9-387B-4235-95EE-211F3D149AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B8F3D-4909-4A9E-BC11-4702D5F6A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="240" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="47370" yWindow="330" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
+    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
       <tp t="s">
-        <v>2025/05/28</v>
+        <v>2025/05/29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/28</v>
+        <v>2025/05/29</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/05/29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,135 +350,118 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/28</v>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3266</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp>
         <v>1963</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2631.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
+      <tp>
+        <v>3299</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2734.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
+      <tp>
+        <v>2005</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>3266</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2631.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
-      <tp>
-        <v>3284</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
-      <tp>
-        <v>2640</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.686e9b353998462aa25037397831c5d7">
-      <tp>
-        <v>1977</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -800,7 +792,7 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -810,7 +802,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="23.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -840,7 +832,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/28</v>
+        <v>2025/05/29</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -848,14 +840,14 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3266</v>
+        <v>3299</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3284</v>
+        <v>3266</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="23.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -865,7 +857,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/28</v>
+        <v>2025/05/29</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -873,14 +865,14 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2631.5</v>
+        <v>2734.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2640</v>
+        <v>2631.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -890,7 +882,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/28</v>
+        <v>2025/05/29</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -898,14 +890,14 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1963</v>
+        <v>2005</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1977</v>
+        <v>1963</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="23.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -925,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="23.25">
       <c r="B7" s="15"/>
     </row>
   </sheetData>
